--- a/ig/messaging/StructureDefinition-medcom-messaging-messagedefinition-fhir.xlsx
+++ b/ig/messaging/StructureDefinition-medcom-messaging-messagedefinition-fhir.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T07:13:40+02:00</t>
+    <t>2024-06-28T10:59:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/messaging/StructureDefinition-medcom-messaging-messagedefinition-fhir.xlsx
+++ b/ig/messaging/StructureDefinition-medcom-messaging-messagedefinition-fhir.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T10:59:26+02:00</t>
+    <t>2024-11-07T08:12:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/messaging/StructureDefinition-medcom-messaging-messagedefinition-fhir.xlsx
+++ b/ig/messaging/StructureDefinition-medcom-messaging-messagedefinition-fhir.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.1</t>
+    <t>2.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T08:12:37+01:00</t>
+    <t>2025-05-13T08:00:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1822,7 +1822,7 @@
     <t>Canonical reference to a GraphDefinition</t>
   </si>
   <si>
-    <t>Canonical reference to a GraphDefinition. If a URL is provided, it is the canonical reference to a [GraphDefinition](graphdefinition.html) that it controls what resources are to be added to the bundle when building the document. The GraphDefinition can also specify profiles that apply to the various resources.</t>
+    <t>Canonical reference to a GraphDefinition. If a URL is provided, it is the canonical reference to a [GraphDefinition](http://hl7.org/fhir/R4/graphdefinition.html) that it controls what resources are to be added to the bundle when building the document. The GraphDefinition can also specify profiles that apply to the various resources.</t>
   </si>
 </sst>
 </file>
@@ -2149,17 +2149,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.91796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.30859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.97265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2168,27 +2168,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="125.125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="93.828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.36328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="110.44140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.02734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="43.078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="41.19921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/messaging/StructureDefinition-medcom-messaging-messagedefinition-fhir.xlsx
+++ b/ig/messaging/StructureDefinition-medcom-messaging-messagedefinition-fhir.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$126</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4690" uniqueCount="610">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.1</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T08:12:37+01:00</t>
+    <t>2025-05-14T11:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1018,7 +1018,7 @@
 </t>
   </si>
   <si>
-    <t>Takes the place of</t>
+    <t>Takes the place of a MessageDefinition that is superseded by this MessageDefinition.</t>
   </si>
   <si>
     <t>A MessageDefinition that is superseded by this definition.</t>
@@ -1048,7 +1048,7 @@
     <t>MessageDefinition.status</t>
   </si>
   <si>
-    <t>draft | active | retired | unknown</t>
+    <t>Must always be defined in the individual MessageDefinition</t>
   </si>
   <si>
     <t>The status of this message definition. Enables tracking the life-cycle of the content.</t>
@@ -1189,6 +1189,9 @@
     <t>If there is no named individual, the telecom information is for the organization as a whole.</t>
   </si>
   <si>
+    <t>MedCom FHIR Team</t>
+  </si>
+  <si>
     <t>ContactDetail.name</t>
   </si>
   <si>
@@ -1273,6 +1276,9 @@
   </si>
   <si>
     <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>fhir@medcom.dk</t>
   </si>
   <si>
     <t>ContactPoint.value</t>
@@ -1513,7 +1519,41 @@
     <t>http://hl7.org/fhir/ValueSet/use-context</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>UsageContext.value[x]</t>
+  </si>
+  <si>
+    <t>MessageDefinition.useContext.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>MessageDefinition.useContext.value[x]:valueCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>MessageDefinition.useContext.value[x].id</t>
+  </si>
+  <si>
+    <t>MessageDefinition.useContext.value[x]:valueCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>MessageDefinition.useContext.value[x].extension</t>
+  </si>
+  <si>
+    <t>MessageDefinition.useContext.value[x]:valueCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>MessageDefinition.useContext.value[x].coding</t>
+  </si>
+  <si>
+    <t>MessageDefinition.useContext.value[x]:valueCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>MessageDefinition.useContext.value[x].text</t>
   </si>
   <si>
     <t>MessageDefinition.jurisdiction</t>
@@ -1547,6 +1587,39 @@
     <t>Definition.jurisdiction</t>
   </si>
   <si>
+    <t>MessageDefinition.jurisdiction.id</t>
+  </si>
+  <si>
+    <t>MessageDefinition.jurisdiction.extension</t>
+  </si>
+  <si>
+    <t>MessageDefinition.jurisdiction.coding</t>
+  </si>
+  <si>
+    <t>MessageDefinition.jurisdiction.coding.id</t>
+  </si>
+  <si>
+    <t>MessageDefinition.jurisdiction.coding.extension</t>
+  </si>
+  <si>
+    <t>MessageDefinition.jurisdiction.coding.system</t>
+  </si>
+  <si>
+    <t>MessageDefinition.jurisdiction.coding.version</t>
+  </si>
+  <si>
+    <t>MessageDefinition.jurisdiction.coding.code</t>
+  </si>
+  <si>
+    <t>MessageDefinition.jurisdiction.coding.display</t>
+  </si>
+  <si>
+    <t>MessageDefinition.jurisdiction.coding.userSelected</t>
+  </si>
+  <si>
+    <t>MessageDefinition.jurisdiction.text</t>
+  </si>
+  <si>
     <t>MessageDefinition.purpose</t>
   </si>
   <si>
@@ -1803,6 +1876,18 @@
     <t>A reference to the message definition that must be adhered to by this supported response.</t>
   </si>
   <si>
+    <t>MessageDefinition.allowedResponse.message.id</t>
+  </si>
+  <si>
+    <t>MessageDefinition.allowedResponse.message.extension</t>
+  </si>
+  <si>
+    <t>MessageDefinition.allowedResponse.message.value</t>
+  </si>
+  <si>
+    <t>http://medcomfhir.dk/ig/acknowledgement/ImplementationGuide/medcom.fhir.dk.acknowledgement</t>
+  </si>
+  <si>
     <t>MessageDefinition.allowedResponse.situation</t>
   </si>
   <si>
@@ -1822,7 +1907,7 @@
     <t>Canonical reference to a GraphDefinition</t>
   </si>
   <si>
-    <t>Canonical reference to a GraphDefinition. If a URL is provided, it is the canonical reference to a [GraphDefinition](graphdefinition.html) that it controls what resources are to be added to the bundle when building the document. The GraphDefinition can also specify profiles that apply to the various resources.</t>
+    <t>Canonical reference to a GraphDefinition. If a URL is provided, it is the canonical reference to a [GraphDefinition](http://hl7.org/fhir/R4/graphdefinition.html) that it controls what resources are to be added to the bundle when building the document. The GraphDefinition can also specify profiles that apply to the various resources.</t>
   </si>
 </sst>
 </file>
@@ -2140,7 +2225,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO107"/>
+  <dimension ref="A1:AO126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2149,17 +2234,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.31640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.97265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2168,27 +2253,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="125.125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="93.828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.36328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="110.44140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.02734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="43.078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="41.19921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2452,7 +2537,7 @@
         <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>77</v>
@@ -3388,7 +3473,7 @@
         <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>77</v>
@@ -4005,10 +4090,10 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>77</v>
@@ -4677,7 +4762,7 @@
         <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>77</v>
@@ -4913,7 +4998,7 @@
         <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
@@ -5385,7 +5470,7 @@
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>77</v>
@@ -5619,7 +5704,7 @@
         <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>77</v>
@@ -7134,7 +7219,7 @@
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
@@ -7370,7 +7455,7 @@
         <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>77</v>
@@ -8101,7 +8186,7 @@
         <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>77</v>
@@ -8140,7 +8225,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8172,10 +8257,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8189,7 +8274,7 @@
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>77</v>
@@ -8198,13 +8283,13 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8255,7 +8340,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8287,10 +8372,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8402,10 +8487,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8519,10 +8604,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8548,10 +8633,10 @@
         <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8560,7 +8645,7 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>77</v>
@@ -8581,10 +8666,10 @@
         <v>175</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8602,7 +8687,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8611,16 +8696,16 @@
         <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8634,10 +8719,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8663,16 +8748,16 @@
         <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8682,7 +8767,7 @@
         <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>77</v>
@@ -8721,7 +8806,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8736,10 +8821,10 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8753,10 +8838,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8782,23 +8867,23 @@
         <v>107</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>77</v>
@@ -8819,10 +8904,10 @@
         <v>175</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8840,7 +8925,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8855,10 +8940,10 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8872,10 +8957,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8898,16 +8983,16 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8957,7 +9042,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8989,10 +9074,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9018,10 +9103,10 @@
         <v>270</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9072,7 +9157,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9090,7 +9175,7 @@
         <v>85</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -9104,13 +9189,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>360</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -9223,7 +9308,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>370</v>
@@ -9267,7 +9352,7 @@
         <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>77</v>
@@ -9338,7 +9423,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>372</v>
@@ -9455,7 +9540,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>374</v>
@@ -9540,7 +9625,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9572,10 +9657,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9589,7 +9674,7 @@
         <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>77</v>
@@ -9598,13 +9683,13 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9655,7 +9740,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9687,10 +9772,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9802,10 +9887,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9919,10 +10004,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9948,10 +10033,10 @@
         <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9960,7 +10045,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>77</v>
@@ -9981,10 +10066,10 @@
         <v>175</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -10002,7 +10087,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10011,16 +10096,16 @@
         <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -10034,10 +10119,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10063,16 +10148,16 @@
         <v>159</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -10121,7 +10206,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10136,10 +10221,10 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -10153,10 +10238,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10182,23 +10267,23 @@
         <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -10219,10 +10304,10 @@
         <v>175</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -10240,7 +10325,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10255,10 +10340,10 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -10272,10 +10357,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10298,16 +10383,16 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10357,7 +10442,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10389,10 +10474,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10418,10 +10503,10 @@
         <v>270</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10472,7 +10557,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10490,7 +10575,7 @@
         <v>85</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10504,10 +10589,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10521,7 +10606,7 @@
         <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>77</v>
@@ -10530,16 +10615,16 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10589,7 +10674,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10610,7 +10695,7 @@
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10621,10 +10706,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10638,7 +10723,7 @@
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>77</v>
@@ -10647,19 +10732,19 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10708,7 +10793,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10729,7 +10814,7 @@
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10740,10 +10825,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10855,10 +10940,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10972,10 +11057,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10989,7 +11074,7 @@
         <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>77</v>
@@ -11001,10 +11086,10 @@
         <v>193</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11013,7 +11098,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -11035,7 +11120,7 @@
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -11053,7 +11138,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -11085,10 +11170,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11200,10 +11285,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11317,10 +11402,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11334,7 +11419,7 @@
         <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>77</v>
@@ -11365,7 +11450,7 @@
         <v>77</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>77</v>
@@ -11436,10 +11521,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11553,10 +11638,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11570,7 +11655,7 @@
         <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>77</v>
@@ -11670,10 +11755,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11787,10 +11872,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11906,10 +11991,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11923,7 +12008,7 @@
         <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>77</v>
@@ -11932,13 +12017,13 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11965,31 +12050,29 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>87</v>
@@ -12021,18 +12104,20 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>87</v>
@@ -12050,14 +12135,12 @@
         <v>181</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -12067,7 +12150,7 @@
         <v>77</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>77</v>
@@ -12082,13 +12165,13 @@
         <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>77</v>
@@ -12106,13 +12189,13 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
@@ -12127,7 +12210,7 @@
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -12138,10 +12221,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12161,20 +12244,18 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>448</v>
+        <v>159</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>494</v>
+        <v>160</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -12223,7 +12304,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>493</v>
+        <v>162</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12235,41 +12316,41 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>497</v>
+        <v>77</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>498</v>
+        <v>77</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>500</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -12281,18 +12362,18 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>448</v>
+        <v>132</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>501</v>
+        <v>133</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12328,54 +12409,54 @@
         <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>499</v>
+        <v>169</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12386,7 +12467,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -12398,16 +12479,20 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>506</v>
+        <v>194</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12455,13 +12540,13 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>505</v>
+        <v>198</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
@@ -12470,10 +12555,10 @@
         <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12487,10 +12572,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12501,10 +12586,10 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>77</v>
@@ -12513,18 +12598,20 @@
         <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>509</v>
+        <v>159</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>510</v>
+        <v>243</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>511</v>
+        <v>244</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12572,13 +12659,13 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>508</v>
+        <v>247</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
@@ -12587,10 +12674,10 @@
         <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -12604,10 +12691,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12621,7 +12708,7 @@
         <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>77</v>
@@ -12630,15 +12717,17 @@
         <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>514</v>
+        <v>181</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12648,7 +12737,7 @@
         <v>77</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>77</v>
@@ -12663,13 +12752,13 @@
         <v>77</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>77</v>
@@ -12687,13 +12776,13 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
@@ -12708,7 +12797,7 @@
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>77</v>
+        <v>505</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12719,10 +12808,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12730,28 +12819,28 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>521</v>
+        <v>161</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12760,7 +12849,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>522</v>
+        <v>77</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -12778,13 +12867,13 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>523</v>
+        <v>77</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>524</v>
+        <v>77</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
@@ -12802,7 +12891,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>519</v>
+        <v>162</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12814,13 +12903,13 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>77</v>
@@ -12834,14 +12923,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12857,18 +12946,20 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>526</v>
+        <v>132</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>527</v>
+        <v>133</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>77</v>
@@ -12905,19 +12996,19 @@
         <v>77</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>525</v>
+        <v>169</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12929,13 +13020,13 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>529</v>
+        <v>137</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
@@ -12949,10 +13040,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12963,28 +13054,32 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
       </c>
@@ -13032,25 +13127,25 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -13064,21 +13159,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
@@ -13090,17 +13185,15 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -13149,19 +13242,19 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
@@ -13181,14 +13274,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>533</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13201,26 +13294,24 @@
         <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>534</v>
+        <v>133</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>535</v>
+        <v>165</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O95" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
       </c>
@@ -13256,19 +13347,19 @@
         <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>536</v>
+        <v>169</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13286,7 +13377,7 @@
         <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -13300,10 +13391,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13311,7 +13402,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>87</v>
@@ -13326,18 +13417,20 @@
         <v>88</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>538</v>
+        <v>204</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>539</v>
+        <v>205</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
@@ -13361,13 +13454,13 @@
         <v>77</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>77</v>
@@ -13385,10 +13478,10 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>537</v>
+        <v>209</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>87</v>
@@ -13400,10 +13493,10 @@
         <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -13417,10 +13510,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13440,23 +13533,21 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>544</v>
+        <v>159</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>545</v>
+        <v>213</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>546</v>
+        <v>214</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13504,7 +13595,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>543</v>
+        <v>216</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13519,10 +13610,10 @@
         <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -13536,10 +13627,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13547,13 +13638,13 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>77</v>
@@ -13562,16 +13653,18 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>550</v>
+        <v>107</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>551</v>
+        <v>220</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>552</v>
+        <v>221</v>
       </c>
       <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13619,10 +13712,10 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>549</v>
+        <v>223</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>87</v>
@@ -13634,10 +13727,10 @@
         <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>77</v>
@@ -13651,10 +13744,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13674,19 +13767,21 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>159</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>554</v>
+        <v>227</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>555</v>
+        <v>228</v>
       </c>
       <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>77</v>
       </c>
@@ -13734,7 +13829,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>553</v>
+        <v>230</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13743,16 +13838,16 @@
         <v>87</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>556</v>
+        <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>77</v>
@@ -13766,10 +13861,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>557</v>
+        <v>515</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>557</v>
+        <v>515</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13777,33 +13872,35 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K100" t="s" s="2">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>558</v>
+        <v>235</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>559</v>
+        <v>236</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13815,7 +13912,7 @@
         <v>77</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>561</v>
+        <v>77</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>77</v>
@@ -13827,13 +13924,13 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>562</v>
+        <v>77</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>563</v>
+        <v>77</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
@@ -13851,7 +13948,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>557</v>
+        <v>239</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13866,10 +13963,10 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>564</v>
+        <v>240</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>77</v>
@@ -13883,10 +13980,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>565</v>
+        <v>516</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>565</v>
+        <v>516</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13897,7 +13994,7 @@
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
@@ -13906,21 +14003,23 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>526</v>
+        <v>159</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>566</v>
+        <v>243</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>567</v>
+        <v>244</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
       </c>
@@ -13968,13 +14067,13 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>565</v>
+        <v>247</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>77</v>
@@ -13983,10 +14082,10 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -14000,10 +14099,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>569</v>
+        <v>517</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>569</v>
+        <v>517</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14017,24 +14116,26 @@
         <v>87</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>159</v>
+        <v>450</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>160</v>
+        <v>518</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>77</v>
@@ -14083,7 +14184,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>162</v>
+        <v>517</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14095,41 +14196,41 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>77</v>
+        <v>521</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>77</v>
+        <v>522</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>131</v>
+        <v>524</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>77</v>
@@ -14141,18 +14242,18 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>132</v>
+        <v>450</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>133</v>
+        <v>525</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
       </c>
@@ -14200,78 +14301,74 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>169</v>
+        <v>523</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>77</v>
+        <v>528</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>571</v>
+        <v>529</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>571</v>
+        <v>529</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>533</v>
+        <v>77</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>132</v>
+        <v>321</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>77</v>
       </c>
@@ -14319,25 +14416,25 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>77</v>
@@ -14351,10 +14448,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14362,10 +14459,10 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>77</v>
@@ -14374,18 +14471,20 @@
         <v>77</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>321</v>
+        <v>533</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -14434,13 +14533,13 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>77</v>
@@ -14466,10 +14565,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14477,28 +14576,28 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>448</v>
+        <v>538</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14525,13 +14624,13 @@
         <v>77</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>77</v>
@@ -14549,10 +14648,10 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>87</v>
@@ -14581,10 +14680,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14592,28 +14691,28 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>579</v>
+        <v>107</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14622,7 +14721,7 @@
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
-        <v>77</v>
+        <v>546</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>77</v>
@@ -14640,13 +14739,13 @@
         <v>77</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>77</v>
+        <v>547</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>77</v>
+        <v>548</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>77</v>
@@ -14664,13 +14763,13 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>77</v>
@@ -14694,8 +14793,2217 @@
         <v>77</v>
       </c>
     </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O123" s="2"/>
+      <c r="P123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO107">
+  <autoFilter ref="A1:AO126">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14705,7 +17013,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI106">
+  <conditionalFormatting sqref="A2:AI125">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/messaging/StructureDefinition-medcom-messaging-messagedefinition-fhir.xlsx
+++ b/ig/messaging/StructureDefinition-medcom-messaging-messagedefinition-fhir.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$107</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4690" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="582">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>2.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T11:03:43+00:00</t>
+    <t>2025-05-23T06:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1018,7 +1018,7 @@
 </t>
   </si>
   <si>
-    <t>Takes the place of a MessageDefinition that is superseded by this MessageDefinition.</t>
+    <t>Takes the place of</t>
   </si>
   <si>
     <t>A MessageDefinition that is superseded by this definition.</t>
@@ -1048,7 +1048,7 @@
     <t>MessageDefinition.status</t>
   </si>
   <si>
-    <t>Must always be defined in the individual MessageDefinition</t>
+    <t>draft | active | retired | unknown</t>
   </si>
   <si>
     <t>The status of this message definition. Enables tracking the life-cycle of the content.</t>
@@ -1189,9 +1189,6 @@
     <t>If there is no named individual, the telecom information is for the organization as a whole.</t>
   </si>
   <si>
-    <t>MedCom FHIR Team</t>
-  </si>
-  <si>
     <t>ContactDetail.name</t>
   </si>
   <si>
@@ -1276,9 +1273,6 @@
   </si>
   <si>
     <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>fhir@medcom.dk</t>
   </si>
   <si>
     <t>ContactPoint.value</t>
@@ -1519,41 +1513,7 @@
     <t>http://hl7.org/fhir/ValueSet/use-context</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>UsageContext.value[x]</t>
-  </si>
-  <si>
-    <t>MessageDefinition.useContext.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>MessageDefinition.useContext.value[x]:valueCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>MessageDefinition.useContext.value[x].id</t>
-  </si>
-  <si>
-    <t>MessageDefinition.useContext.value[x]:valueCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>MessageDefinition.useContext.value[x].extension</t>
-  </si>
-  <si>
-    <t>MessageDefinition.useContext.value[x]:valueCodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>MessageDefinition.useContext.value[x].coding</t>
-  </si>
-  <si>
-    <t>MessageDefinition.useContext.value[x]:valueCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>MessageDefinition.useContext.value[x].text</t>
   </si>
   <si>
     <t>MessageDefinition.jurisdiction</t>
@@ -1587,39 +1547,6 @@
     <t>Definition.jurisdiction</t>
   </si>
   <si>
-    <t>MessageDefinition.jurisdiction.id</t>
-  </si>
-  <si>
-    <t>MessageDefinition.jurisdiction.extension</t>
-  </si>
-  <si>
-    <t>MessageDefinition.jurisdiction.coding</t>
-  </si>
-  <si>
-    <t>MessageDefinition.jurisdiction.coding.id</t>
-  </si>
-  <si>
-    <t>MessageDefinition.jurisdiction.coding.extension</t>
-  </si>
-  <si>
-    <t>MessageDefinition.jurisdiction.coding.system</t>
-  </si>
-  <si>
-    <t>MessageDefinition.jurisdiction.coding.version</t>
-  </si>
-  <si>
-    <t>MessageDefinition.jurisdiction.coding.code</t>
-  </si>
-  <si>
-    <t>MessageDefinition.jurisdiction.coding.display</t>
-  </si>
-  <si>
-    <t>MessageDefinition.jurisdiction.coding.userSelected</t>
-  </si>
-  <si>
-    <t>MessageDefinition.jurisdiction.text</t>
-  </si>
-  <si>
     <t>MessageDefinition.purpose</t>
   </si>
   <si>
@@ -1874,18 +1801,6 @@
   </si>
   <si>
     <t>A reference to the message definition that must be adhered to by this supported response.</t>
-  </si>
-  <si>
-    <t>MessageDefinition.allowedResponse.message.id</t>
-  </si>
-  <si>
-    <t>MessageDefinition.allowedResponse.message.extension</t>
-  </si>
-  <si>
-    <t>MessageDefinition.allowedResponse.message.value</t>
-  </si>
-  <si>
-    <t>http://medcomfhir.dk/ig/acknowledgement/ImplementationGuide/medcom.fhir.dk.acknowledgement</t>
   </si>
   <si>
     <t>MessageDefinition.allowedResponse.situation</t>
@@ -2225,7 +2140,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO126"/>
+  <dimension ref="A1:AO107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2234,8 +2149,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.31640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.91796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.47265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -2537,7 +2452,7 @@
         <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>77</v>
@@ -3473,7 +3388,7 @@
         <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>77</v>
@@ -4090,10 +4005,10 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>77</v>
@@ -4762,7 +4677,7 @@
         <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>77</v>
@@ -4998,7 +4913,7 @@
         <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
@@ -5470,7 +5385,7 @@
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>77</v>
@@ -5704,7 +5619,7 @@
         <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>77</v>
@@ -7219,7 +7134,7 @@
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
@@ -7455,7 +7370,7 @@
         <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>77</v>
@@ -8186,46 +8101,46 @@
         <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8257,10 +8172,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8274,7 +8189,7 @@
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>77</v>
@@ -8283,13 +8198,13 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8340,7 +8255,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8372,10 +8287,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8487,10 +8402,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8604,10 +8519,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8633,10 +8548,10 @@
         <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8645,7 +8560,7 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>77</v>
@@ -8666,46 +8581,46 @@
         <v>175</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Z55" t="s" s="2">
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF55" t="s" s="2">
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI55" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8719,10 +8634,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8748,16 +8663,16 @@
         <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8767,7 +8682,7 @@
         <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>77</v>
@@ -8806,7 +8721,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8821,10 +8736,10 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8838,10 +8753,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8867,23 +8782,23 @@
         <v>107</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>77</v>
@@ -8904,28 +8819,28 @@
         <v>175</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8940,10 +8855,10 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8957,10 +8872,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8983,16 +8898,16 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9042,7 +8957,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9074,10 +8989,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9103,10 +9018,10 @@
         <v>270</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9157,7 +9072,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9175,7 +9090,7 @@
         <v>85</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -9189,13 +9104,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>360</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -9308,7 +9223,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>370</v>
@@ -9352,7 +9267,7 @@
         <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>77</v>
@@ -9423,7 +9338,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>372</v>
@@ -9540,7 +9455,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>374</v>
@@ -9625,7 +9540,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9657,10 +9572,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9674,7 +9589,7 @@
         <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>77</v>
@@ -9683,13 +9598,13 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9740,7 +9655,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9772,10 +9687,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9887,10 +9802,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10004,10 +9919,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10033,10 +9948,10 @@
         <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10045,7 +9960,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>77</v>
@@ -10066,46 +9981,46 @@
         <v>175</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Z67" t="s" s="2">
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF67" t="s" s="2">
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -10119,10 +10034,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10148,16 +10063,16 @@
         <v>159</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -10206,7 +10121,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10221,10 +10136,10 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -10238,10 +10153,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10267,23 +10182,23 @@
         <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -10304,28 +10219,28 @@
         <v>175</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10340,10 +10255,10 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -10357,10 +10272,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10383,16 +10298,16 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10442,7 +10357,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10474,10 +10389,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10503,10 +10418,10 @@
         <v>270</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10557,7 +10472,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10575,7 +10490,7 @@
         <v>85</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10589,10 +10504,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10606,7 +10521,7 @@
         <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>77</v>
@@ -10615,16 +10530,16 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10674,7 +10589,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10695,7 +10610,7 @@
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10706,10 +10621,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10723,7 +10638,7 @@
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>77</v>
@@ -10732,19 +10647,19 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10793,7 +10708,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10814,7 +10729,7 @@
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10825,10 +10740,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10940,10 +10855,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11057,10 +10972,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11074,7 +10989,7 @@
         <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>77</v>
@@ -11086,10 +11001,10 @@
         <v>193</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11098,7 +11013,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -11120,7 +11035,7 @@
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -11138,7 +11053,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -11170,10 +11085,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11285,10 +11200,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11402,10 +11317,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11419,7 +11334,7 @@
         <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>77</v>
@@ -11450,7 +11365,7 @@
         <v>77</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>77</v>
@@ -11521,10 +11436,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11638,10 +11553,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11655,7 +11570,7 @@
         <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>77</v>
@@ -11755,10 +11670,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11872,10 +11787,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11991,10 +11906,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12008,7 +11923,7 @@
         <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>77</v>
@@ -12017,13 +11932,13 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12050,29 +11965,31 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Z84" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="Y84" t="s" s="2">
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AC84" s="2"/>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>87</v>
@@ -12104,20 +12021,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>87</v>
@@ -12135,12 +12050,14 @@
         <v>181</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -12150,7 +12067,7 @@
         <v>77</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>77</v>
@@ -12165,37 +12082,37 @@
         <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="Z85" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF85" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="AG85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
@@ -12210,7 +12127,7 @@
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>77</v>
+        <v>492</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -12221,10 +12138,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12244,18 +12161,20 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>159</v>
+        <v>448</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>160</v>
+        <v>494</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -12304,7 +12223,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>162</v>
+        <v>493</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12316,41 +12235,41 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>77</v>
+        <v>498</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>131</v>
+        <v>500</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -12362,18 +12281,18 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>132</v>
+        <v>448</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>133</v>
+        <v>501</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12409,54 +12328,54 @@
         <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>169</v>
+        <v>499</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12467,7 +12386,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -12479,20 +12398,16 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>194</v>
+        <v>506</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12540,13 +12455,13 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>198</v>
+        <v>505</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
@@ -12555,10 +12470,10 @@
         <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12572,10 +12487,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12586,10 +12501,10 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>77</v>
@@ -12598,20 +12513,18 @@
         <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>159</v>
+        <v>509</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>243</v>
+        <v>510</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>244</v>
+        <v>511</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12659,13 +12572,13 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>247</v>
+        <v>508</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
@@ -12674,10 +12587,10 @@
         <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -12691,10 +12604,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12708,7 +12621,7 @@
         <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>77</v>
@@ -12717,17 +12630,15 @@
         <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>181</v>
+        <v>514</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12737,7 +12648,7 @@
         <v>77</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>77</v>
@@ -12752,13 +12663,13 @@
         <v>77</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>77</v>
@@ -12776,13 +12687,13 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
@@ -12797,7 +12708,7 @@
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12808,10 +12719,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12819,28 +12730,28 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>161</v>
+        <v>521</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12849,7 +12760,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>77</v>
+        <v>522</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -12867,13 +12778,13 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>77</v>
+        <v>523</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>77</v>
+        <v>524</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
@@ -12891,7 +12802,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>162</v>
+        <v>519</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12903,13 +12814,13 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>77</v>
@@ -12923,14 +12834,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12946,20 +12857,18 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>132</v>
+        <v>526</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>133</v>
+        <v>527</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>77</v>
@@ -12996,19 +12905,19 @@
         <v>77</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>169</v>
+        <v>525</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13020,13 +12929,13 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>137</v>
+        <v>529</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
@@ -13040,10 +12949,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13054,32 +12963,28 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>77</v>
       </c>
@@ -13127,25 +13032,25 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -13159,21 +13064,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
@@ -13185,15 +13090,17 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -13242,19 +13149,19 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
@@ -13274,14 +13181,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>131</v>
+        <v>533</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13294,24 +13201,26 @@
         <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>133</v>
+        <v>534</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>165</v>
+        <v>535</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
       </c>
@@ -13347,19 +13256,19 @@
         <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>169</v>
+        <v>536</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13377,7 +13286,7 @@
         <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -13391,10 +13300,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13402,7 +13311,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>87</v>
@@ -13417,20 +13326,18 @@
         <v>88</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>204</v>
+        <v>538</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>205</v>
+        <v>539</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
@@ -13454,13 +13361,13 @@
         <v>77</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>77</v>
@@ -13478,10 +13385,10 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>87</v>
@@ -13493,10 +13400,10 @@
         <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -13510,10 +13417,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13533,21 +13440,23 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>159</v>
+        <v>544</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>213</v>
+        <v>545</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>214</v>
+        <v>546</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13595,7 +13504,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>216</v>
+        <v>543</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13610,10 +13519,10 @@
         <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -13627,10 +13536,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13638,13 +13547,13 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>77</v>
@@ -13653,18 +13562,16 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>107</v>
+        <v>550</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>220</v>
+        <v>551</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>221</v>
+        <v>552</v>
       </c>
       <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13712,10 +13619,10 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>223</v>
+        <v>549</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>87</v>
@@ -13727,10 +13634,10 @@
         <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>77</v>
@@ -13744,10 +13651,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13767,21 +13674,19 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>159</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>227</v>
+        <v>554</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>228</v>
+        <v>555</v>
       </c>
       <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>77</v>
       </c>
@@ -13829,7 +13734,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>230</v>
+        <v>553</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13838,16 +13743,16 @@
         <v>87</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>77</v>
+        <v>556</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>77</v>
@@ -13861,10 +13766,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13872,35 +13777,33 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>235</v>
+        <v>558</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>236</v>
+        <v>559</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13912,7 +13815,7 @@
         <v>77</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>77</v>
+        <v>561</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>77</v>
@@ -13924,13 +13827,13 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>77</v>
+        <v>562</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>77</v>
+        <v>563</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
@@ -13948,7 +13851,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>239</v>
+        <v>557</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13963,10 +13866,10 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>240</v>
+        <v>564</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>77</v>
@@ -13980,10 +13883,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>516</v>
+        <v>565</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>516</v>
+        <v>565</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13994,7 +13897,7 @@
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
@@ -14003,23 +13906,21 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>159</v>
+        <v>526</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>243</v>
+        <v>566</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>244</v>
+        <v>567</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
       </c>
@@ -14067,13 +13968,13 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>247</v>
+        <v>565</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>77</v>
@@ -14082,10 +13983,10 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -14099,10 +14000,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14116,26 +14017,24 @@
         <v>87</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>450</v>
+        <v>159</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>518</v>
+        <v>160</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>77</v>
@@ -14184,7 +14083,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>517</v>
+        <v>162</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14196,41 +14095,41 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>521</v>
+        <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>522</v>
+        <v>77</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>523</v>
+        <v>570</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>523</v>
+        <v>570</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>524</v>
+        <v>131</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>77</v>
@@ -14242,18 +14141,18 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>450</v>
+        <v>132</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>525</v>
+        <v>133</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>77</v>
       </c>
@@ -14301,74 +14200,78 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>523</v>
+        <v>169</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>528</v>
+        <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>77</v>
       </c>
@@ -14416,25 +14319,25 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>77</v>
@@ -14448,10 +14351,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14459,10 +14362,10 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>77</v>
@@ -14471,20 +14374,18 @@
         <v>77</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>533</v>
+        <v>321</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>534</v>
+        <v>573</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -14533,13 +14434,13 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>77</v>
@@ -14565,10 +14466,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14576,28 +14477,28 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>538</v>
+        <v>448</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14624,13 +14525,13 @@
         <v>77</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>482</v>
+        <v>77</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>77</v>
@@ -14648,10 +14549,10 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>87</v>
@@ -14680,10 +14581,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14691,28 +14592,28 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>107</v>
+        <v>579</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14721,7 +14622,7 @@
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
-        <v>546</v>
+        <v>77</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>77</v>
@@ -14739,13 +14640,13 @@
         <v>77</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>547</v>
+        <v>77</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>548</v>
+        <v>77</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>77</v>
@@ -14763,13 +14664,13 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>77</v>
@@ -14793,2217 +14694,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="P113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O117" s="2"/>
-      <c r="P117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O119" s="2"/>
-      <c r="P119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O123" s="2"/>
-      <c r="P123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO126">
+  <autoFilter ref="A1:AO107">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17013,7 +14705,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI125">
+  <conditionalFormatting sqref="A2:AI106">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
